--- a/biology/Médecine/Test_d'Ishihara/Test_d'Ishihara.xlsx
+++ b/biology/Médecine/Test_d'Ishihara/Test_d'Ishihara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Test_d%27Ishihara</t>
+          <t>Test_d'Ishihara</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le test chromatique d’Ishihara est un test pour déceler les déficiences des teintes rouge et verte. Il fut nommé d'après le nom de son inventeur, le docteur Shinobu Ishihara (1879-1963), professeur à l'université de Tokyo, qui publia pour la première fois ses tests en 1917. 
 Le test se compose de trente-huit planches colorées, sur lesquelles un cercle constitué de points de différentes tailles et de couleurs légèrement différentes, lesquels sont apparemment disposés de manière aléatoire. 
 Les modèles de points se différencient par leurs couleurs et par un nombre.
-En cas d'achromatopsie complète, seule la planche numéro 1 est déchiffrée correctement[1].
+En cas d'achromatopsie complète, seule la planche numéro 1 est déchiffrée correctement.
 Il permet de détecter toutes les déficiences dichromatiques sauf la tritanopie et la tritanomalie, d’ailleurs très rare. Une planche pseudo-isochromatique est constituée d’une mosaïque de points de couleurs différentes, disposés de façon apparemment aléatoire, au sein duquel apparaît une forme sur un fond.
 En réalité, les couleurs utilisées sont situées sur des axes de confusion colorés prédéterminés pour mettre en évidence un type de daltonisme précis.
 On utilise un nombre réduit de teintes. Chacune d’elles apparaît à plusieurs degrés de taille, de saturation et de luminosité. Ces degrés sont identiques pour chacune des couleurs représentées. Un ensemble de points reproduit une forme reconnaissable par l’unité de la teinte, mais, au sein de cette forme, on trouvera plusieurs saturations ou luminosités différentes de façon aléatoire. Le daltonien qui ne verra pas la couleur ne pourra pas non plus déchiffrer la forme par le seul fait d’une homogénéité de saturation ou de luminosité. À l’inverse, il existe des planches dans lesquelles cette homogénéité est utilisée pour faire percevoir des formes à des dichromates alors que les sujets normaux, trompés par des couleurs qui leur paraissent différentes, ne les percevront pas.
@@ -499,7 +511,7 @@
 Les planches 14 à 17 sont très proches des planches 6 à 9 mais elles possèdent un fond légèrement différent. De plus, comme dans la série précédente, les sujets daltoniens ne perçoivent rien.
 Les planches 18 à 21 sont construites sur un mode différent. Contrairement aux précédentes, les sujets normaux ou achromates ne perçoivent rien tandis que les dichromates peuvent percevoir ou distinguer des chiffres. En fait, cette perception est très aléatoire au point que cette série de planches peut éventuellement être négligée lors d’un test rapide.
 Les planches 22 à 25 sont cruciales car elles ont pour but d’identifier un individu comme étant atteint de protanopie ou de deutéranopie. Pour cela, le fond est gris et chaque planche présente deux chiffres, dont les protans et les deutans ne distinguent qu’un seul.
-Remarque : ce test n’est pas seulement utilisé pour le dépistage du daltonisme mais également pour d’autres types de perturbations de la perception des couleurs[2].
+Remarque : ce test n’est pas seulement utilisé pour le dépistage du daltonisme mais également pour d’autres types de perturbations de la perception des couleurs.
 En complément est utilisée la lanterne de Beyne pour mesurer le degré de daltonisme.
 </t>
         </is>
